--- a/data/M2-MS-AES.xlsx
+++ b/data/M2-MS-AES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/SSDS/enseignement/UFR STAPS/Direction/Outils/celcatreport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DDB33DAD-6E28-A340-8F6A-89665BA4BEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC67E519-70C2-B140-8F1E-412D6E441352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19580" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Code Apogée</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Stage (4 à 6 mois) / Accompagnement au stage ou au mémoire / Technique de recherche d'emploi</t>
+  </si>
+  <si>
+    <t>Groupes CM</t>
   </si>
 </sst>
 </file>
@@ -524,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D425352-B3D2-6642-82B3-EC9BD51219AA}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,7 +541,7 @@
     <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,19 +558,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -584,19 +590,22 @@
         <v>15</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>12</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -613,19 +622,22 @@
         <v>16</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -642,19 +654,22 @@
         <v>10</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -671,19 +686,22 @@
         <v>10</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -700,19 +718,22 @@
         <v>15</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>12</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -729,19 +750,22 @@
         <v>8</v>
       </c>
       <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
         <v>8</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -758,19 +782,22 @@
         <v>24</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>12</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -787,19 +814,22 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>20</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -816,19 +846,22 @@
         <v>21</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>8</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -845,19 +878,22 @@
         <v>10</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>10</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -874,19 +910,22 @@
         <v>10</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>10</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -903,19 +942,22 @@
         <v>15</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>12</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -932,19 +974,22 @@
         <v>16</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -961,22 +1006,24 @@
         <v>20</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I45">
-    <sortCondition ref="B2:B45"/>
-    <sortCondition ref="A2:A45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J15">
+    <sortCondition ref="B2:B15"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
